--- a/数据整理/stocks/港股/01811-中广核新能源.xlsx
+++ b/数据整理/stocks/港股/01811-中广核新能源.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1039,7 +1040,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1050,17 +1051,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1070,13 +1091,597 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>005669</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源公用事业行业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>166.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.8466</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009630</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浦银安盛ESG责任投资混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3474</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009631</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>浦银安盛ESG责任投资混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.73</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3966</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002653</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰康沪港深精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3259</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012454</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>淳厚鑫悦混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1047</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010204</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中银港股通优势成长股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.70</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1001</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003580</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰康沪港深价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0864</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006923</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源沪港深非周期性行业股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.62</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012455</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>淳厚鑫悦混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005142</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006924</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>前海开源沪港深非周期性行业股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.62</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005143</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012315</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>创金合信港股通成长股票型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012316</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>创金合信港股通成长股票型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>14</v>
       </c>
       <c r="D2" t="n">
+        <v>11.35</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
         <v>9.640000000000001</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01811-中广核新能源.xlsx
+++ b/数据整理/stocks/港股/01811-中广核新能源.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1628,7 +1629,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1639,17 +1640,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1659,14 +1680,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>14</v>
-      </c>
-      <c r="D2" t="n">
-        <v>11.35</v>
+          <t>006923</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源沪港深非周期性行业股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1675,13 +1718,119 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>006924</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源沪港深非周期性行业股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>14</v>
       </c>
       <c r="D3" t="n">
+        <v>11.35</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>14</v>
+      </c>
+      <c r="D4" t="n">
         <v>9.640000000000001</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01811-中广核新能源.xlsx
+++ b/数据整理/stocks/港股/01811-中广核新能源.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1761,7 +1762,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1772,17 +1773,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1792,14 +1813,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.04</v>
+          <t>006923</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源沪港深非周期性行业股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1808,14 +1851,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>006924</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源沪港深非周期性行业股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>11.35</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="4">
@@ -1824,13 +1957,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>14</v>
       </c>
       <c r="D4" t="n">
+        <v>11.35</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>14</v>
+      </c>
+      <c r="D5" t="n">
         <v>9.640000000000001</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01811-中广核新能源.xlsx
+++ b/数据整理/stocks/港股/01811-中广核新能源.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>11.35</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>14</v>
       </c>
       <c r="D5" t="n">
+        <v>11.35</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>14</v>
+      </c>
+      <c r="D6" t="n">
         <v>9.640000000000001</v>
       </c>
     </row>
@@ -615,22 +632,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.61</t>
+          <t>86.78</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.16</t>
+          <t>6.13</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0320</t>
+          <t>0.0159</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -653,22 +670,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.61</t>
+          <t>86.78</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.16</t>
+          <t>6.13</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0144</t>
+          <t>0.0123</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -747,26 +764,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.77</t>
+          <t>89.61</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.22</t>
+          <t>5.16</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0282</t>
+          <t>0.0320</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -785,26 +802,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.77</t>
+          <t>89.61</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.22</t>
+          <t>5.16</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0115</t>
+          <t>0.0144</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -813,6 +830,138 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006923</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源沪港深非周期性行业股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006924</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源沪港深非周期性行业股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1400,7 +1549,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/01811-中广核新能源.xlsx
+++ b/数据整理/stocks/港股/01811-中广核新能源.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,7 +487,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>11.35</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>14</v>
       </c>
       <c r="D6" t="n">
+        <v>11.35</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>14</v>
+      </c>
+      <c r="D7" t="n">
         <v>9.640000000000001</v>
       </c>
     </row>
@@ -632,26 +649,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>86.78</t>
+          <t>90.65</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.13</t>
+          <t>6.34</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0159</t>
+          <t>0.0178</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -670,26 +687,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>86.78</t>
+          <t>90.65</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.13</t>
+          <t>6.34</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0123</t>
+          <t>0.0152</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -764,22 +781,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.61</t>
+          <t>86.78</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.16</t>
+          <t>6.13</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0320</t>
+          <t>0.0159</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -802,22 +819,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.61</t>
+          <t>86.78</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.16</t>
+          <t>6.13</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0144</t>
+          <t>0.0123</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -896,26 +913,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.77</t>
+          <t>89.61</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.22</t>
+          <t>5.16</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0282</t>
+          <t>0.0320</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -934,26 +951,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.77</t>
+          <t>89.61</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.22</t>
+          <t>5.16</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0115</t>
+          <t>0.0144</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -962,6 +979,138 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006923</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源沪港深非周期性行业股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006924</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源沪港深非周期性行业股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1549,7 +1698,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
